--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value679.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value679.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.534292263963441</v>
+        <v>1.472070813179016</v>
       </c>
       <c r="B1">
-        <v>1.892122451870341</v>
+        <v>1.738719463348389</v>
       </c>
       <c r="C1">
-        <v>2.657915882217388</v>
+        <v>1.864494204521179</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.128275871276855</v>
       </c>
       <c r="E1">
-        <v>0.6212089239772304</v>
+        <v>2.693896055221558</v>
       </c>
     </row>
   </sheetData>
